--- a/controle.xlsx
+++ b/controle.xlsx
@@ -1204,50 +1204,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1276,39 +1234,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18323,7 +18323,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19139,8 +19139,12 @@
       <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
       <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
+      <c r="AF14" s="20">
+        <v>55</v>
+      </c>
+      <c r="AG14" s="20">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -19898,225 +19902,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="48">
         <v>515497.13</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="135"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="48">
         <v>744064.75</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="135"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="48">
         <v>310974.69</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="144"/>
       <c r="L5" s="48">
         <v>892402.95</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="48">
         <v>383514.01</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="48">
         <v>582486.59</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="135"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="48">
         <v>169796.00570000001</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="135"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="48">
         <v>648565.17000000004</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="135"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>131983.12</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>161578.16000000003</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="135"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>141178.68429999999</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="135"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>243837.77999999991</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="65">
         <f>C46</f>
         <v>109890.96480000006</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="137"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="70">
         <f>F46</f>
         <v>107436.3848</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="137"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="65">
         <f>K46</f>
         <v>159615.15580000004</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="137"/>
+      <c r="K8" s="134"/>
       <c r="L8" s="70">
         <f>L46</f>
         <v>153308.26200000002</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>22092.155199999936</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>54141.775200000033</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="138"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="69">
         <f>I7-I8</f>
         <v>-18436.471500000043</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>90529.517999999895</v>
@@ -20175,31 +20179,31 @@
       <c r="X11" s="58"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139" t="s">
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139" t="s">
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
       <c r="P12" s="58"/>
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
@@ -20211,21 +20215,21 @@
       <c r="X12" s="58"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
       <c r="R13" s="58"/>
@@ -20237,21 +20241,21 @@
       <c r="X13" s="58"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="58"/>
       <c r="R14" s="58"/>
@@ -20263,38 +20267,38 @@
       <c r="X14" s="58"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="135"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="48">
         <v>375568.51</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="48">
         <v>488197.85</v>
       </c>
-      <c r="G15" s="135" t="s">
+      <c r="G15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="135"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="48">
         <v>224640.79</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="135"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="48">
         <v>265859.15000000002</v>
       </c>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="135"/>
+      <c r="N15" s="144"/>
       <c r="O15" s="48">
         <v>274005.59000000003</v>
       </c>
@@ -20309,38 +20313,38 @@
       <c r="X15" s="58"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="135"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="48">
         <v>337876</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="135"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="48">
         <v>355400.3</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="135"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="48">
         <v>167236.15</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="135"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="48">
         <v>157088.06</v>
       </c>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="135"/>
+      <c r="N16" s="144"/>
       <c r="O16" s="48">
         <v>195512.576</v>
       </c>
@@ -20355,42 +20359,42 @@
       <c r="X16" s="58"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="38">
         <f>C15-C16</f>
         <v>37692.510000000009</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="38">
         <f>F15-F16</f>
         <v>132797.54999999999</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="135"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="38">
         <f>I15-I16</f>
         <v>57404.640000000014</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="135"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="38">
         <f>L15-L16</f>
         <v>108771.09000000003</v>
       </c>
-      <c r="M17" s="135" t="s">
+      <c r="M17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="135"/>
+      <c r="N17" s="144"/>
       <c r="O17" s="38">
         <f>O15-O16</f>
         <v>78493.014000000025</v>
@@ -20406,42 +20410,42 @@
       <c r="X17" s="58"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="65">
         <f>J46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="137"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="70">
         <f>H46</f>
         <v>65032.173400000014</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="137"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="65">
         <f>I46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="137"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="70">
         <f>Q46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="M18" s="137" t="s">
+      <c r="M18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="137"/>
+      <c r="N18" s="134"/>
       <c r="O18" s="70">
         <f>G46</f>
         <v>59781.935800000021</v>
@@ -20457,42 +20461,42 @@
       <c r="X18" s="58"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="69">
         <f>C17-C18</f>
         <v>-22089.425800000012</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="68">
         <f>F17-F18</f>
         <v>67765.376599999974</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="138"/>
+      <c r="H19" s="145"/>
       <c r="I19" s="69">
         <f>I17-I18</f>
         <v>-2377.2958000000071</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="138"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="68">
         <f>L17-L18</f>
         <v>48989.154200000004</v>
       </c>
-      <c r="M19" s="138" t="s">
+      <c r="M19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="138"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="68">
         <f>O17-O18</f>
         <v>18711.078200000004</v>
@@ -20628,74 +20632,74 @@
         <v>111</v>
       </c>
       <c r="B26" s="118"/>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="141" t="s">
+      <c r="E26" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="141" t="s">
+      <c r="G26" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="141" t="s">
+      <c r="H26" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="141" t="s">
+      <c r="J26" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="141" t="s">
+      <c r="K26" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="141" t="s">
+      <c r="L26" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="144" t="s">
+      <c r="M26" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="144" t="s">
+      <c r="N26" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="144" t="s">
+      <c r="O26" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="144" t="s">
+      <c r="P26" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q26" s="146" t="s">
+      <c r="Q26" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="145" t="s">
+      <c r="R26" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="118"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="145"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="150"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -21584,15 +21588,15 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
@@ -21626,11 +21630,11 @@
       <c r="C50" s="44">
         <v>265859.15000000002</v>
       </c>
-      <c r="E50" s="156" t="s">
+      <c r="E50" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
@@ -21642,9 +21646,9 @@
       <c r="C51" s="44">
         <v>208275.08</v>
       </c>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
@@ -21656,9 +21660,9 @@
       <c r="C52" s="44">
         <v>0</v>
       </c>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
@@ -21670,10 +21674,10 @@
       <c r="C53" s="44">
         <v>5708.81</v>
       </c>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="135"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="48">
         <v>4803300.51</v>
       </c>
@@ -21688,10 +21692,10 @@
       <c r="C54" s="44">
         <v>744064.75</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="135"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="48">
         <v>3488402.46</v>
       </c>
@@ -21706,10 +21710,10 @@
       <c r="C55" s="44">
         <v>0</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="38">
         <f>G53-G54</f>
         <v>1314898.0499999998</v>
@@ -21725,10 +21729,10 @@
       <c r="C56" s="44">
         <v>274005.59000000003</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="137"/>
+      <c r="F56" s="134"/>
       <c r="G56" s="38" t="e">
         <f>GETPIVOTDATA("Valor",$A$28,"Centro Custo","")</f>
         <v>#REF!</v>
@@ -21745,10 +21749,10 @@
         <v>488197.85</v>
       </c>
       <c r="D57" s="40"/>
-      <c r="E57" s="149" t="s">
+      <c r="E57" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="149"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="39" t="e">
         <f>G55-G56</f>
         <v>#REF!</v>
@@ -21767,11 +21771,11 @@
         <v>224640.79</v>
       </c>
       <c r="D58" s="40"/>
-      <c r="E58" s="150" t="s">
+      <c r="E58" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="153"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="139"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
     </row>
@@ -21785,9 +21789,9 @@
       <c r="C59" s="44">
         <v>375568.51</v>
       </c>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="154"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="140"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
     </row>
@@ -21801,9 +21805,9 @@
       <c r="C60" s="44">
         <v>310974.69</v>
       </c>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="155"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="141"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
     </row>
@@ -21881,64 +21885,16 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="E50:G52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:O14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G12:I14"/>
-    <mergeCell ref="J12:L14"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D12:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:I47"/>
@@ -21955,16 +21911,64 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D12:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G12:I14"/>
+    <mergeCell ref="J12:L14"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:O14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -22014,17 +22018,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
       <c r="M1" s="79"/>
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
@@ -22040,212 +22044,212 @@
       <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="48">
         <v>506915.26</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="135"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="48">
         <v>675364.89</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="135"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="48">
         <v>301716.25</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="144"/>
       <c r="L5" s="48">
         <v>852193.64</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="48">
         <v>373106.56199999998</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="48">
         <v>514430.10700000002</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="135"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="48">
         <v>165064.03099999999</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="135"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="48">
         <v>617017.44900000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="135"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>133808.69800000003</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>160934.783</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="135"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>136652.21900000001</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="135"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>235176.19099999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="65">
         <f>C46</f>
         <v>104881.77639999996</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="137"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="70">
         <f>F46</f>
         <v>105889.60159999992</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="137"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="65">
         <f>K46</f>
         <v>123436.23959999997</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="137"/>
+      <c r="K8" s="134"/>
       <c r="L8" s="70">
         <f>L46</f>
         <v>158098.28659999993</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>28926.921600000074</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>55045.181400000074</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="138"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>13215.97940000004</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>77077.904400000058</v>
@@ -22304,31 +22308,31 @@
       <c r="X11" s="60"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139" t="s">
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139" t="s">
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
@@ -22340,21 +22344,21 @@
       <c r="X12" s="60"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -22366,21 +22370,21 @@
       <c r="X13" s="60"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -22392,38 +22396,38 @@
       <c r="X14" s="60"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="135"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="48">
         <v>273795.55</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="48">
         <v>476700.04</v>
       </c>
-      <c r="G15" s="135" t="s">
+      <c r="G15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="135"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="48">
         <v>204104.65</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="135"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="48">
         <v>234301.63</v>
       </c>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="135"/>
+      <c r="N15" s="144"/>
       <c r="O15" s="48">
         <v>252346.74</v>
       </c>
@@ -22438,38 +22442,38 @@
       <c r="X15" s="60"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="135"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="48">
         <v>236472.17499999999</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="135"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="48">
         <v>346950.44199999998</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="135"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="48">
         <v>150172.68700000001</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="135"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="48">
         <v>135746.33199999999</v>
       </c>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="135"/>
+      <c r="N16" s="144"/>
       <c r="O16" s="48">
         <v>181185.652</v>
       </c>
@@ -22484,42 +22488,42 @@
       <c r="X16" s="60"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="38">
         <f>C15-C16</f>
         <v>37323.375</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="38">
         <f>F15-F16</f>
         <v>129749.598</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="135"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="38">
         <f>I15-I16</f>
         <v>53931.962999999989</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="135"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="38">
         <f>L15-L16</f>
         <v>98555.29800000001</v>
       </c>
-      <c r="M17" s="135" t="s">
+      <c r="M17" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="135"/>
+      <c r="N17" s="144"/>
       <c r="O17" s="38">
         <f>O15-O16</f>
         <v>71161.087999999989</v>
@@ -22535,42 +22539,42 @@
       <c r="X17" s="60"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="65">
         <f>J46</f>
         <v>33235.403999999995</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="137"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="70">
         <f>H46</f>
         <v>67839.256399999984</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="137"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="65">
         <f>I46</f>
         <v>49487.266399999993</v>
       </c>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="137"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="70">
         <f>Q46</f>
         <v>62088.031999999992</v>
       </c>
-      <c r="M18" s="137" t="s">
+      <c r="M18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="137"/>
+      <c r="N18" s="134"/>
       <c r="O18" s="70">
         <f>G46</f>
         <v>49487.266399999993</v>
@@ -22586,42 +22590,42 @@
       <c r="X18" s="60"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="68">
         <f>C17-C18</f>
         <v>4087.971000000005</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="68">
         <f>F17-F18</f>
         <v>61910.341600000014</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="138"/>
+      <c r="H19" s="145"/>
       <c r="I19" s="68">
         <f>I17-I18</f>
         <v>4444.6965999999957</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="138"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="68">
         <f>L17-L18</f>
         <v>36467.266000000018</v>
       </c>
-      <c r="M19" s="138" t="s">
+      <c r="M19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="138"/>
+      <c r="N19" s="145"/>
       <c r="O19" s="68">
         <f>O17-O18</f>
         <v>21673.821599999996</v>
@@ -22755,72 +22759,72 @@
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="B26" s="63"/>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="141" t="s">
+      <c r="E26" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="141" t="s">
+      <c r="G26" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="141" t="s">
+      <c r="H26" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="141" t="s">
+      <c r="J26" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="141" t="s">
+      <c r="K26" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="141" t="s">
+      <c r="L26" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="144" t="s">
+      <c r="M26" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="144" t="s">
+      <c r="N26" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="144" t="s">
+      <c r="O26" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="144" t="s">
+      <c r="P26" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="145" t="s">
+      <c r="R26" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="145"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="150"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
@@ -23676,15 +23680,15 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
@@ -23693,23 +23697,23 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C50" s="44"/>
-      <c r="E50" s="156" t="s">
+      <c r="E50" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C51" s="44"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
       <c r="Q52" s="59"/>
       <c r="R52" s="59"/>
       <c r="S52" s="59"/>
@@ -23728,10 +23732,10 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="135"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="48">
         <v>4411351.55</v>
       </c>
@@ -23753,10 +23757,10 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="135"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="48">
         <v>3154934.094</v>
       </c>
@@ -23778,10 +23782,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="38">
         <f>G53-G54</f>
         <v>1256417.4559999998</v>
@@ -23804,10 +23808,10 @@
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="137"/>
+      <c r="F56" s="134"/>
       <c r="G56" s="38">
         <f>B35</f>
         <v>901262.2999999997</v>
@@ -23831,10 +23835,10 @@
     <row r="57" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="44"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="149" t="s">
+      <c r="E57" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="149"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="39">
         <f>G55-G56</f>
         <v>355155.15600000008</v>
@@ -23862,11 +23866,11 @@
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="40"/>
-      <c r="E58" s="150" t="s">
+      <c r="E58" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="153"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="139"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
       <c r="Q58" s="59"/>
@@ -23889,9 +23893,9 @@
       <c r="A59" s="43"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="154"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="140"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
     </row>
@@ -23899,9 +23903,9 @@
       <c r="A60" s="43"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="155"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="141"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
     </row>
@@ -23943,58 +23947,20 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="E50:G52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J12:L14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="M12:O14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:E7"/>
@@ -24011,20 +23977,58 @@
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:F14"/>
     <mergeCell ref="G12:I14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J12:L14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24071,274 +24075,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="48">
         <v>531867.13</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="135"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="48">
         <v>652795.42000000004</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="135"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="48">
         <v>297608.93</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="135"/>
+      <c r="K5" s="144"/>
       <c r="L5" s="48">
         <v>853950.4</v>
       </c>
-      <c r="M5" s="135" t="s">
+      <c r="M5" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="135"/>
+      <c r="N5" s="144"/>
       <c r="O5" s="48">
         <v>179121.71</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="48">
         <v>393653.83899999998</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="48">
         <v>499045.13</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="135"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="48">
         <v>162872.95000000001</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="135"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="48">
         <v>625284.76599999995</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="135"/>
+      <c r="N6" s="144"/>
       <c r="O6" s="48">
         <v>135806.67000000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="135"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>138213.29100000003</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>153750.29000000004</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="135"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>134735.97999999998</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="135"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>228665.63400000008</v>
       </c>
-      <c r="M7" s="135" t="s">
+      <c r="M7" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="135"/>
+      <c r="N7" s="144"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>43315.039999999979</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>90740.489600000001</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="137"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>92761.427100000001</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="137"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>105790.9351</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="137"/>
+      <c r="K8" s="134"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>132395.74300000002</v>
       </c>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="137"/>
+      <c r="N8" s="134"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>43198.650600000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>47472.801400000026</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>60988.862900000036</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="138"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>28945.044899999979</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>96269.891000000061</v>
       </c>
-      <c r="M9" s="138" t="s">
+      <c r="M9" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="138"/>
+      <c r="N9" s="145"/>
       <c r="O9" s="68">
         <f>O7-O8</f>
         <v>116.3893999999782</v>
@@ -24499,31 +24503,31 @@
       <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139" t="s">
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
@@ -24535,21 +24539,21 @@
       <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
@@ -24561,21 +24565,21 @@
       <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
       <c r="R16" s="72"/>
@@ -24587,38 +24591,38 @@
       <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="48">
         <v>286297.45</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="48">
         <v>499615.77</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="135"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="48">
         <v>212982.92</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="135"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="48">
         <v>234551.04000000001</v>
       </c>
-      <c r="M17" s="135" t="s">
+      <c r="M17" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="135"/>
+      <c r="N17" s="144"/>
       <c r="O17" s="48">
         <v>261635.31</v>
       </c>
@@ -24633,38 +24637,38 @@
       <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="48">
         <v>251731.51</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="135"/>
+      <c r="E18" s="144"/>
       <c r="F18" s="48">
         <v>370288.01</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="135"/>
+      <c r="H18" s="144"/>
       <c r="I18" s="48">
         <v>157987.6</v>
       </c>
-      <c r="J18" s="135" t="s">
+      <c r="J18" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="135"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="48">
         <v>140771.85</v>
       </c>
-      <c r="M18" s="135" t="s">
+      <c r="M18" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="135"/>
+      <c r="N18" s="144"/>
       <c r="O18" s="48">
         <v>189899.06</v>
       </c>
@@ -24679,42 +24683,42 @@
       <c r="X18" s="72"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="135"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>34565.94</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="135"/>
+      <c r="E19" s="144"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>129327.76000000001</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>54995.320000000007</v>
       </c>
-      <c r="J19" s="135" t="s">
+      <c r="J19" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="135"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>93779.19</v>
       </c>
-      <c r="M19" s="135" t="s">
+      <c r="M19" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="135"/>
+      <c r="N19" s="144"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>71736.25</v>
@@ -24730,42 +24734,42 @@
       <c r="X19" s="72"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>29009.596000000001</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>59232.276800000007</v>
       </c>
-      <c r="G20" s="137" t="s">
+      <c r="G20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="137"/>
+      <c r="H20" s="134"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>43198.650600000001</v>
       </c>
-      <c r="J20" s="137" t="s">
+      <c r="J20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="137"/>
+      <c r="K20" s="134"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>54266.080199999997</v>
       </c>
-      <c r="M20" s="137" t="s">
+      <c r="M20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="137"/>
+      <c r="N20" s="134"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>43198.650600000001</v>
@@ -24781,42 +24785,42 @@
       <c r="X20" s="72"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="138"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="68">
         <f>C19-C20</f>
         <v>5556.344000000001</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="138"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="68">
         <f>F19-F20</f>
         <v>70095.483200000002</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="138"/>
+      <c r="H21" s="145"/>
       <c r="I21" s="68">
         <f>I19-I20</f>
         <v>11796.669400000006</v>
       </c>
-      <c r="J21" s="138" t="s">
+      <c r="J21" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="145"/>
       <c r="L21" s="68">
         <f>L19-L20</f>
         <v>39513.109800000006</v>
       </c>
-      <c r="M21" s="138" t="s">
+      <c r="M21" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="138"/>
+      <c r="N21" s="145"/>
       <c r="O21" s="68">
         <f>O19-O20</f>
         <v>28537.599399999999</v>
@@ -25010,72 +25014,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="141" t="s">
+      <c r="E28" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="141" t="s">
+      <c r="H28" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="142" t="s">
+      <c r="I28" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="141" t="s">
+      <c r="L28" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="144" t="s">
+      <c r="M28" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="144" t="s">
+      <c r="P28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="142" t="s">
+      <c r="Q28" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="145" t="s">
+      <c r="R28" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="145"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="150"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -25935,15 +25939,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -25955,23 +25959,23 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="156" t="s">
+      <c r="E52" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="Q54" s="71"/>
       <c r="R54" s="71"/>
       <c r="S54" s="71"/>
@@ -25990,10 +25994,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="48">
         <v>4448387.59</v>
       </c>
@@ -26015,10 +26019,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="48">
         <v>2953080.36</v>
       </c>
@@ -26040,10 +26044,10 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C57" s="44"/>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>1495307.23</v>
@@ -26066,10 +26070,10 @@
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44"/>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="137"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="38">
         <v>843678.7</v>
       </c>
@@ -26092,10 +26096,10 @@
     <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="149" t="s">
+      <c r="E59" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="149"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>651628.53</v>
@@ -26123,11 +26127,11 @@
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="150" t="s">
+      <c r="E60" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="153"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="139"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="71"/>
@@ -26150,9 +26154,9 @@
       <c r="A61" s="43"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="154"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="140"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -26160,9 +26164,9 @@
       <c r="A62" s="43"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="155"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="141"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -26204,6 +26208,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
@@ -26228,90 +26316,6 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26355,232 +26359,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="48">
         <v>557799.81999999995</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="163"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="48">
         <v>650006.14</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="163"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="48">
         <v>308541.14</v>
       </c>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="163"/>
+      <c r="K5" s="161"/>
       <c r="L5" s="48">
         <v>862935.39</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="163"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="48">
         <v>212036.46</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="48">
         <v>388269.11</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="48">
         <v>483047.13199999998</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="48">
         <v>175844.09</v>
       </c>
-      <c r="J6" s="163" t="s">
+      <c r="J6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="163"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="48">
         <v>627493.02</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="163"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="48">
         <v>165652.34</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>169530.70999999996</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>166959.00800000003</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="163"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>132697.05000000002</v>
       </c>
-      <c r="J7" s="163" t="s">
+      <c r="J7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="163"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>235442.37</v>
       </c>
-      <c r="M7" s="163" t="s">
+      <c r="M7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="163"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>46384.119999999995</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>83560.4764</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>86799.870599999995</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="164"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>98515.067099999986</v>
       </c>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>120611.04060000001</v>
       </c>
-      <c r="M8" s="164" t="s">
+      <c r="M8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="164"/>
+      <c r="N8" s="166"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>41828.093400000005</v>
@@ -26595,34 +26599,34 @@
         <f>C7-C8</f>
         <v>85970.233599999963</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>80159.137400000036</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>34181.982900000032</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="161"/>
+      <c r="K9" s="168"/>
       <c r="L9" s="86">
         <f>L7-L8</f>
         <v>114831.32939999999</v>
       </c>
-      <c r="M9" s="161" t="s">
+      <c r="M9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="161"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="68">
         <f>O7-O8</f>
         <v>4556.0265999999901</v>
@@ -26688,38 +26692,38 @@
       <c r="A11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="163">
         <v>5087.5309999999999</v>
       </c>
-      <c r="C11" s="162"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="163">
         <v>13010.71</v>
       </c>
-      <c r="F11" s="162"/>
+      <c r="F11" s="163"/>
       <c r="G11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="165">
+      <c r="H11" s="164">
         <v>-9100.2029999999995</v>
       </c>
-      <c r="I11" s="165"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="162">
+      <c r="K11" s="163">
         <v>56548.53</v>
       </c>
-      <c r="L11" s="162"/>
+      <c r="L11" s="163"/>
       <c r="M11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="163">
         <v>39642</v>
       </c>
-      <c r="O11" s="162"/>
+      <c r="O11" s="163"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
@@ -26813,31 +26817,31 @@
       <c r="X13" s="85"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139" t="s">
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
       <c r="R14" s="85"/>
@@ -26849,21 +26853,21 @@
       <c r="X14" s="85"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="85"/>
@@ -26875,21 +26879,21 @@
       <c r="X15" s="85"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
       <c r="P16" s="85"/>
       <c r="Q16" s="85"/>
       <c r="R16" s="85"/>
@@ -26901,38 +26905,38 @@
       <c r="X16" s="85"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="48">
         <v>273341.44</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="48">
         <v>497029.57</v>
       </c>
-      <c r="G17" s="163" t="s">
+      <c r="G17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="163"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="48">
         <v>207036.62</v>
       </c>
-      <c r="J17" s="163" t="s">
+      <c r="J17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="163"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="48">
         <v>248225.91</v>
       </c>
-      <c r="M17" s="163" t="s">
+      <c r="M17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="163"/>
+      <c r="N17" s="161"/>
       <c r="O17" s="48">
         <v>273433.59999999998</v>
       </c>
@@ -26947,38 +26951,38 @@
       <c r="X17" s="85"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="48">
         <v>236784.66</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="163"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="48">
         <v>364611.87</v>
       </c>
-      <c r="G18" s="163" t="s">
+      <c r="G18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="163"/>
+      <c r="H18" s="161"/>
       <c r="I18" s="48">
         <v>153447.85999999999</v>
       </c>
-      <c r="J18" s="163" t="s">
+      <c r="J18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="163"/>
+      <c r="K18" s="161"/>
       <c r="L18" s="48">
         <v>148432.6</v>
       </c>
-      <c r="M18" s="163" t="s">
+      <c r="M18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="163"/>
+      <c r="N18" s="161"/>
       <c r="O18" s="48">
         <v>196310.3</v>
       </c>
@@ -26993,42 +26997,42 @@
       <c r="X18" s="85"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>36556.78</v>
       </c>
-      <c r="D19" s="163" t="s">
+      <c r="D19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>132417.70000000001</v>
       </c>
-      <c r="G19" s="163" t="s">
+      <c r="G19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="163"/>
+      <c r="H19" s="161"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>53588.760000000009</v>
       </c>
-      <c r="J19" s="163" t="s">
+      <c r="J19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="163"/>
+      <c r="K19" s="161"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>99793.31</v>
       </c>
-      <c r="M19" s="163" t="s">
+      <c r="M19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="163"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>77123.299999999988</v>
@@ -27044,42 +27048,42 @@
       <c r="X19" s="85"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="164"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>27933.518800000005</v>
       </c>
-      <c r="D20" s="164" t="s">
+      <c r="D20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="164"/>
+      <c r="E20" s="166"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>57538.633300000001</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="164"/>
+      <c r="H20" s="166"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>41828.093400000005</v>
       </c>
-      <c r="J20" s="164" t="s">
+      <c r="J20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="164"/>
+      <c r="K20" s="166"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>52723.885200000004</v>
       </c>
-      <c r="M20" s="164" t="s">
+      <c r="M20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="164"/>
+      <c r="N20" s="166"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>41828.093400000005</v>
@@ -27095,42 +27099,42 @@
       <c r="X20" s="85"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="161"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="68">
         <f>C19-C20</f>
         <v>8623.2611999999936</v>
       </c>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="68">
         <f>F19-F20</f>
         <v>74879.06670000001</v>
       </c>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="161"/>
+      <c r="H21" s="168"/>
       <c r="I21" s="68">
         <f>I19-I20</f>
         <v>11760.666600000004</v>
       </c>
-      <c r="J21" s="161" t="s">
+      <c r="J21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="168"/>
       <c r="L21" s="68">
         <f>L19-L20</f>
         <v>47069.424799999993</v>
       </c>
-      <c r="M21" s="161" t="s">
+      <c r="M21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="68">
         <f>O19-O20</f>
         <v>35295.206599999983</v>
@@ -27205,38 +27209,38 @@
       <c r="A23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="163">
         <v>27784</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="163"/>
       <c r="D23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="163">
         <v>87939.69</v>
       </c>
-      <c r="F23" s="162"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H23" s="163">
         <v>45416</v>
       </c>
-      <c r="I23" s="162"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="162">
+      <c r="K23" s="163">
         <v>307266.35499999998</v>
       </c>
-      <c r="L23" s="162"/>
+      <c r="L23" s="163"/>
       <c r="M23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="162">
+      <c r="N23" s="163">
         <v>50010.7</v>
       </c>
-      <c r="O23" s="162"/>
+      <c r="O23" s="163"/>
       <c r="P23" s="85"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="85"/>
@@ -27359,72 +27363,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="141" t="s">
+      <c r="E28" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="141" t="s">
+      <c r="H28" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="142" t="s">
+      <c r="I28" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="141" t="s">
+      <c r="L28" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="144" t="s">
+      <c r="M28" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="144" t="s">
+      <c r="P28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="142" t="s">
+      <c r="Q28" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="145" t="s">
+      <c r="R28" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="145"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="150"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -28284,15 +28288,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -28304,23 +28308,23 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="156" t="s">
+      <c r="E52" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="Q54" s="84"/>
       <c r="R54" s="84"/>
       <c r="S54" s="84"/>
@@ -28339,10 +28343,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="48">
         <v>4561443.93</v>
       </c>
@@ -28364,10 +28368,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="48">
         <v>3249075.68</v>
       </c>
@@ -28389,10 +28393,10 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C57" s="44"/>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>1312368.2499999995</v>
@@ -28415,10 +28419,10 @@
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44"/>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="137"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="38">
         <v>816594</v>
       </c>
@@ -28441,10 +28445,10 @@
     <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="149" t="s">
+      <c r="E59" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="149"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>495774.24999999953</v>
@@ -28472,11 +28476,11 @@
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="150" t="s">
+      <c r="E60" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="153"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="139"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="84"/>
@@ -28499,9 +28503,9 @@
       <c r="A61" s="43"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="154"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="140"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -28509,9 +28513,9 @@
       <c r="A62" s="43"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="155"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="141"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -28531,10 +28535,10 @@
       <c r="A64" s="43"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
-      <c r="E64" s="160">
+      <c r="E64" s="169">
         <v>1763206.064</v>
       </c>
-      <c r="F64" s="160"/>
+      <c r="F64" s="169"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28574,83 +28578,15 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
@@ -28669,15 +28605,83 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28721,231 +28725,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="48">
         <v>537509.72</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="163"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="48">
         <v>657936.4</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="163"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="48">
         <v>294566.33</v>
       </c>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="163"/>
+      <c r="K5" s="161"/>
       <c r="L5" s="48">
         <v>893519.14</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="163"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="48">
         <v>220725.76000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="48">
         <v>381007.54399999999</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="48">
         <v>507906.97</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="48">
         <v>174134.49</v>
       </c>
-      <c r="J6" s="163" t="s">
+      <c r="J6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="163"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="48">
         <v>662760.5</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="163"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="48">
         <v>170099.35</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>156502.17599999998</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>150029.43000000005</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="163"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>120431.84000000003</v>
       </c>
-      <c r="J7" s="163" t="s">
+      <c r="J7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="163"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="38">
         <v>234367.9</v>
       </c>
-      <c r="M7" s="163" t="s">
+      <c r="M7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="163"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>50626.41</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>144925.62239999999</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>150756.70369999998</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="164"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>163137.70969999998</v>
       </c>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>191249.12939999998</v>
       </c>
-      <c r="M8" s="164" t="s">
+      <c r="M8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="164"/>
+      <c r="N8" s="166"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>56037.185399999988</v>
@@ -28960,34 +28964,34 @@
         <f>C7-C8</f>
         <v>11576.553599999985</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="99">
         <f>F7-F8</f>
         <v>-727.27369999993243</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="99">
         <f>I7-I8</f>
         <v>-42705.869699999952</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="161"/>
+      <c r="K9" s="168"/>
       <c r="L9" s="86">
         <f>L7-L8</f>
         <v>43118.770600000018</v>
       </c>
-      <c r="M9" s="161" t="s">
+      <c r="M9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="161"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="99">
         <f>O7-O8</f>
         <v>-5410.7753999999841</v>
@@ -29053,38 +29057,38 @@
       <c r="A11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="163">
         <v>5287.12</v>
       </c>
-      <c r="C11" s="162"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="163">
         <v>9729.4580000000005</v>
       </c>
-      <c r="F11" s="162"/>
+      <c r="F11" s="163"/>
       <c r="G11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="165">
+      <c r="H11" s="164">
         <v>-11606.819</v>
       </c>
-      <c r="I11" s="165"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="162">
+      <c r="K11" s="163">
         <v>64654.633000000002</v>
       </c>
-      <c r="L11" s="162"/>
+      <c r="L11" s="163"/>
       <c r="M11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="163">
         <v>41685</v>
       </c>
-      <c r="O11" s="162"/>
+      <c r="O11" s="163"/>
       <c r="P11" s="97"/>
       <c r="Q11" s="97"/>
       <c r="R11" s="97"/>
@@ -29178,31 +29182,31 @@
       <c r="X13" s="97"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139" t="s">
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="97"/>
       <c r="Q14" s="97"/>
       <c r="R14" s="97"/>
@@ -29214,21 +29218,21 @@
       <c r="X14" s="97"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
       <c r="P15" s="97"/>
       <c r="Q15" s="97"/>
       <c r="R15" s="97"/>
@@ -29240,21 +29244,21 @@
       <c r="X15" s="97"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
       <c r="P16" s="97"/>
       <c r="Q16" s="97"/>
       <c r="R16" s="97"/>
@@ -29266,38 +29270,38 @@
       <c r="X16" s="97"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="48">
         <v>271298.52</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="48">
         <v>469113.72</v>
       </c>
-      <c r="G17" s="163" t="s">
+      <c r="G17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="163"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="48">
         <v>199232.32</v>
       </c>
-      <c r="J17" s="163" t="s">
+      <c r="J17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="163"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="48">
         <v>213796.95</v>
       </c>
-      <c r="M17" s="163" t="s">
+      <c r="M17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="163"/>
+      <c r="N17" s="161"/>
       <c r="O17" s="48">
         <v>258660.67</v>
       </c>
@@ -29312,38 +29316,38 @@
       <c r="X17" s="97"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="48">
         <v>238523.89</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="163"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="48">
         <v>343578.62</v>
       </c>
-      <c r="G18" s="163" t="s">
+      <c r="G18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="163"/>
+      <c r="H18" s="161"/>
       <c r="I18" s="48">
         <v>149004.79999999999</v>
       </c>
-      <c r="J18" s="163" t="s">
+      <c r="J18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="163"/>
+      <c r="K18" s="161"/>
       <c r="L18" s="48">
         <v>126906.01</v>
       </c>
-      <c r="M18" s="163" t="s">
+      <c r="M18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="163"/>
+      <c r="N18" s="161"/>
       <c r="O18" s="48">
         <v>184414.94</v>
       </c>
@@ -29358,42 +29362,42 @@
       <c r="X18" s="97"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>32774.630000000005</v>
       </c>
-      <c r="D19" s="163" t="s">
+      <c r="D19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>125535.09999999998</v>
       </c>
-      <c r="G19" s="163" t="s">
+      <c r="G19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="163"/>
+      <c r="H19" s="161"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>50227.520000000019</v>
       </c>
-      <c r="J19" s="163" t="s">
+      <c r="J19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="163"/>
+      <c r="K19" s="161"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>86890.940000000017</v>
       </c>
-      <c r="M19" s="163" t="s">
+      <c r="M19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="163"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>74245.73000000001</v>
@@ -29409,42 +29413,42 @@
       <c r="X19" s="97"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="164"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>38259.16399999999</v>
       </c>
-      <c r="D20" s="164" t="s">
+      <c r="D20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="164"/>
+      <c r="E20" s="166"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>76120.277999999991</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="164"/>
+      <c r="H20" s="166"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>56037.185399999988</v>
       </c>
-      <c r="J20" s="164" t="s">
+      <c r="J20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="164"/>
+      <c r="K20" s="166"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>69867.612599999993</v>
       </c>
-      <c r="M20" s="164" t="s">
+      <c r="M20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="164"/>
+      <c r="N20" s="166"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>56037.185399999988</v>
@@ -29460,42 +29464,42 @@
       <c r="X20" s="97"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="161"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="99">
         <f>C19-C20</f>
         <v>-5484.5339999999851</v>
       </c>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="68">
         <f>F19-F20</f>
         <v>49414.821999999986</v>
       </c>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="161"/>
+      <c r="H21" s="168"/>
       <c r="I21" s="99">
         <f>I19-I20</f>
         <v>-5809.6653999999689</v>
       </c>
-      <c r="J21" s="161" t="s">
+      <c r="J21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="168"/>
       <c r="L21" s="68">
         <f>L19-L20</f>
         <v>17023.327400000024</v>
       </c>
-      <c r="M21" s="161" t="s">
+      <c r="M21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="68">
         <f>O19-O20</f>
         <v>18208.544600000023</v>
@@ -29570,38 +29574,38 @@
       <c r="A23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="163">
         <v>31126</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="163"/>
       <c r="D23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="163">
         <v>78826.69</v>
       </c>
-      <c r="F23" s="162"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H23" s="163">
         <v>45416</v>
       </c>
-      <c r="I23" s="162"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="162">
+      <c r="K23" s="163">
         <v>221776.35500000001</v>
       </c>
-      <c r="L23" s="162"/>
+      <c r="L23" s="163"/>
       <c r="M23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="162">
+      <c r="N23" s="163">
         <v>45904.7</v>
       </c>
-      <c r="O23" s="162"/>
+      <c r="O23" s="163"/>
       <c r="P23" s="97"/>
       <c r="Q23" s="97"/>
       <c r="R23" s="97"/>
@@ -29724,72 +29728,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="141" t="s">
+      <c r="E28" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="141" t="s">
+      <c r="H28" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="142" t="s">
+      <c r="I28" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="141" t="s">
+      <c r="L28" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="144" t="s">
+      <c r="M28" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="144" t="s">
+      <c r="P28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="142" t="s">
+      <c r="Q28" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="145" t="s">
+      <c r="R28" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="145"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="150"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -30649,15 +30653,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -30669,23 +30673,23 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="156" t="s">
+      <c r="E52" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="Q54" s="96"/>
       <c r="R54" s="96"/>
       <c r="S54" s="96"/>
@@ -30706,10 +30710,10 @@
       <c r="A55" s="46"/>
       <c r="B55" s="38"/>
       <c r="C55" s="44"/>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="48">
         <v>4469326.12</v>
       </c>
@@ -30733,10 +30737,10 @@
       <c r="A56" s="46"/>
       <c r="B56" s="38"/>
       <c r="C56" s="44"/>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="48">
         <v>3230636.97</v>
       </c>
@@ -30760,10 +30764,10 @@
       <c r="A57" s="46"/>
       <c r="B57" s="38"/>
       <c r="C57" s="44"/>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>1238689.1499999999</v>
@@ -30788,10 +30792,10 @@
       <c r="A58" s="46"/>
       <c r="B58" s="38"/>
       <c r="C58" s="44"/>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="137"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="38">
         <v>1113204.1299999999</v>
       </c>
@@ -30816,10 +30820,10 @@
       <c r="B59" s="38"/>
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="149" t="s">
+      <c r="E59" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="149"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>125485.02000000002</v>
@@ -30847,11 +30851,11 @@
       <c r="B60" s="38"/>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="150" t="s">
+      <c r="E60" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="153"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="139"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="96"/>
@@ -30874,9 +30878,9 @@
       <c r="A61" s="46"/>
       <c r="B61" s="38"/>
       <c r="C61" s="44"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="154"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="140"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -30884,9 +30888,9 @@
       <c r="A62" s="46"/>
       <c r="B62" s="38"/>
       <c r="C62" s="44"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="155"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="141"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -30906,10 +30910,10 @@
       <c r="A64" s="98"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
-      <c r="E64" s="160">
+      <c r="E64" s="169">
         <v>1911771.8810000001</v>
       </c>
-      <c r="F64" s="160"/>
+      <c r="F64" s="169"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30949,26 +30953,78 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H23:I23"/>
@@ -30981,78 +31037,26 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31096,273 +31100,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139" t="s">
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="48">
         <v>607630.82999999996</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="163"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="48">
         <v>686207.18</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="163"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="48">
         <v>308530.18</v>
       </c>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="163"/>
+      <c r="K5" s="161"/>
       <c r="L5" s="48">
         <v>924808.58</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="163"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="48">
         <v>213882.53</v>
       </c>
-      <c r="P5" s="163" t="s">
+      <c r="P5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="163"/>
+      <c r="Q5" s="161"/>
       <c r="R5" s="48">
         <v>380717.23</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="48">
         <v>451494.24800000002</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="48">
         <v>528621.21</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="161"/>
       <c r="I6" s="48">
         <v>183803.56</v>
       </c>
-      <c r="J6" s="163" t="s">
+      <c r="J6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="163"/>
+      <c r="K6" s="161"/>
       <c r="L6" s="48">
         <v>679527.89</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="163"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="48">
         <v>164361.60000000001</v>
       </c>
-      <c r="P6" s="163" t="s">
+      <c r="P6" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="163"/>
+      <c r="Q6" s="161"/>
       <c r="R6" s="48">
         <v>253964.94500000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>156136.58199999994</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>157585.97000000009</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="163"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>124726.62</v>
       </c>
-      <c r="J7" s="163" t="s">
+      <c r="J7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="163"/>
+      <c r="K7" s="161"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>245280.68999999994</v>
       </c>
-      <c r="M7" s="163" t="s">
+      <c r="M7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="163"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>49520.929999999993</v>
       </c>
-      <c r="P7" s="163" t="s">
+      <c r="P7" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="163"/>
+      <c r="Q7" s="161"/>
       <c r="R7" s="38">
         <f>R5-R6</f>
         <v>126752.28499999997</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>78829.255600000004</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>81038.557399999991</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="164"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>92525.328399999999</v>
       </c>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>115834.58740000002</v>
       </c>
-      <c r="M8" s="164" t="s">
+      <c r="M8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="164"/>
+      <c r="N8" s="166"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>39491.493600000002</v>
       </c>
-      <c r="P8" s="164" t="s">
+      <c r="P8" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" s="164"/>
+      <c r="Q8" s="166"/>
       <c r="R8" s="70">
         <f>M48</f>
         <v>36073.977200000001</v>
@@ -31377,42 +31381,42 @@
         <f>C7-C8</f>
         <v>77307.326399999933</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="104">
         <f>F7-F8</f>
         <v>76547.412600000098</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="104">
         <f>I7-I8</f>
         <v>32201.291599999997</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="161"/>
+      <c r="K9" s="168"/>
       <c r="L9" s="104">
         <f>L7-L8</f>
         <v>129446.10259999993</v>
       </c>
-      <c r="M9" s="161" t="s">
+      <c r="M9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="161"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="104">
         <f>O7-O8</f>
         <v>10029.436399999991</v>
       </c>
-      <c r="P9" s="161" t="s">
+      <c r="P9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="161"/>
+      <c r="Q9" s="168"/>
       <c r="R9" s="104">
         <f>R7-R8</f>
         <v>90678.30779999998</v>
@@ -31595,31 +31599,31 @@
       <c r="X13" s="101"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139" t="s">
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139" t="s">
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="101"/>
       <c r="Q14" s="101"/>
       <c r="R14" s="101"/>
@@ -31631,21 +31635,21 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
       <c r="P15" s="101"/>
       <c r="Q15" s="101"/>
       <c r="R15" s="101"/>
@@ -31657,21 +31661,21 @@
       <c r="X15" s="101"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="101"/>
@@ -31683,38 +31687,38 @@
       <c r="X16" s="101"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="48">
         <v>270178.21999999997</v>
       </c>
-      <c r="D17" s="163" t="s">
+      <c r="D17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="48">
         <v>483343.93</v>
       </c>
-      <c r="G17" s="163" t="s">
+      <c r="G17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="163"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="48">
         <v>207747.64</v>
       </c>
-      <c r="J17" s="163" t="s">
+      <c r="J17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="163"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="48">
         <v>246562.15</v>
       </c>
-      <c r="M17" s="163" t="s">
+      <c r="M17" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="163"/>
+      <c r="N17" s="161"/>
       <c r="O17" s="48">
         <v>264270.28999999998</v>
       </c>
@@ -31729,38 +31733,38 @@
       <c r="X17" s="101"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="48">
         <v>234398.46299999999</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="163"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="48">
         <v>348966.14899999998</v>
       </c>
-      <c r="G18" s="163" t="s">
+      <c r="G18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="163"/>
+      <c r="H18" s="161"/>
       <c r="I18" s="48">
         <v>152215.20800000001</v>
       </c>
-      <c r="J18" s="163" t="s">
+      <c r="J18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="163"/>
+      <c r="K18" s="161"/>
       <c r="L18" s="48">
         <v>147500.71900000001</v>
       </c>
-      <c r="M18" s="163" t="s">
+      <c r="M18" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="163"/>
+      <c r="N18" s="161"/>
       <c r="O18" s="48">
         <v>189522.076</v>
       </c>
@@ -31775,42 +31779,42 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>35779.756999999983</v>
       </c>
-      <c r="D19" s="163" t="s">
+      <c r="D19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>134377.78100000002</v>
       </c>
-      <c r="G19" s="163" t="s">
+      <c r="G19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="163"/>
+      <c r="H19" s="161"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>55532.432000000001</v>
       </c>
-      <c r="J19" s="163" t="s">
+      <c r="J19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="163"/>
+      <c r="K19" s="161"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>99061.430999999982</v>
       </c>
-      <c r="M19" s="163" t="s">
+      <c r="M19" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="163"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>74748.213999999978</v>
@@ -31826,42 +31830,42 @@
       <c r="X19" s="101"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="164"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>26381.403200000001</v>
       </c>
-      <c r="D20" s="164" t="s">
+      <c r="D20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="164"/>
+      <c r="E20" s="166"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>54310.342199999999</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="164"/>
+      <c r="H20" s="166"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>39491.493600000002</v>
       </c>
-      <c r="J20" s="164" t="s">
+      <c r="J20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="164"/>
+      <c r="K20" s="166"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>49744.042800000003</v>
       </c>
-      <c r="M20" s="164" t="s">
+      <c r="M20" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="164"/>
+      <c r="N20" s="166"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>39491.493600000002</v>
@@ -31877,42 +31881,42 @@
       <c r="X20" s="101"/>
     </row>
     <row r="21" spans="1:24" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="161"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="104">
         <f>C19-C20</f>
         <v>9398.3537999999826</v>
       </c>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="104">
         <f>F19-F20</f>
         <v>80067.438800000018</v>
       </c>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="161"/>
+      <c r="H21" s="168"/>
       <c r="I21" s="104">
         <f>I19-I20</f>
         <v>16040.938399999999</v>
       </c>
-      <c r="J21" s="161" t="s">
+      <c r="J21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="168"/>
       <c r="L21" s="104">
         <f>L19-L20</f>
         <v>49317.388199999979</v>
       </c>
-      <c r="M21" s="161" t="s">
+      <c r="M21" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="104">
         <f>O19-O20</f>
         <v>35256.720399999977</v>
@@ -32122,72 +32126,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="141" t="s">
+      <c r="E28" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="141" t="s">
+      <c r="H28" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="142" t="s">
+      <c r="I28" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="141" t="s">
+      <c r="L28" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="144" t="s">
+      <c r="M28" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="144" t="s">
+      <c r="P28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="142" t="s">
+      <c r="Q28" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="145" t="s">
+      <c r="R28" s="150" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="145"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="150"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -33047,15 +33051,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -33067,11 +33071,11 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="156" t="s">
+      <c r="E52" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -33081,9 +33085,9 @@
         <v>136</v>
       </c>
       <c r="C53" s="44"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -33093,9 +33097,9 @@
         <v>101452.57</v>
       </c>
       <c r="C54" s="44"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="Q54" s="100"/>
       <c r="R54" s="100"/>
       <c r="S54" s="100"/>
@@ -33120,10 +33124,10 @@
         <v>70713.05</v>
       </c>
       <c r="C55" s="44"/>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="48"/>
       <c r="Q55" s="100"/>
       <c r="R55" s="100"/>
@@ -33149,10 +33153,10 @@
         <v>68636.039999999994</v>
       </c>
       <c r="C56" s="44"/>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="48"/>
       <c r="Q56" s="100"/>
       <c r="R56" s="100"/>
@@ -33178,10 +33182,10 @@
         <v>170875.82</v>
       </c>
       <c r="C57" s="44"/>
-      <c r="E57" s="135" t="s">
+      <c r="E57" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>0</v>
@@ -33210,10 +33214,10 @@
         <v>68598.960000000006</v>
       </c>
       <c r="C58" s="44"/>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="137"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="38">
         <v>694732.52</v>
       </c>
@@ -33242,10 +33246,10 @@
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="149" t="s">
+      <c r="E59" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="149"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>-694732.52</v>
@@ -33277,11 +33281,11 @@
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="150" t="s">
+      <c r="E60" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="153"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="139"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="100"/>
@@ -33308,9 +33312,9 @@
         <v>694732.52</v>
       </c>
       <c r="C61" s="44"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="154"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="140"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -33322,9 +33326,9 @@
         <v>1389465.04</v>
       </c>
       <c r="C62" s="44"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="155"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="141"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -33340,8 +33344,8 @@
       <c r="A64" s="102"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="160"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33377,6 +33381,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="P2:R4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E24:F24"/>
@@ -33401,104 +33503,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="P2:R4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
